--- a/media/inventory/inventory.xlsx
+++ b/media/inventory/inventory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="244">
   <si>
     <t>account_number</t>
   </si>
@@ -52,6 +52,9 @@
     <t>wearables</t>
   </si>
   <si>
+    <t>VendorNumber</t>
+  </si>
+  <si>
     <t>bill_date</t>
   </si>
   <si>
@@ -232,16 +235,469 @@
     <t>342125539-00001</t>
   </si>
   <si>
-    <t>01234567890</t>
-  </si>
-  <si>
-    <t>grd</t>
-  </si>
-  <si>
-    <t>4G Mobile Broadband 5GB</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>314-203-1016</t>
+  </si>
+  <si>
+    <t>314-203-1585</t>
+  </si>
+  <si>
+    <t>314-281-8557</t>
+  </si>
+  <si>
+    <t>314-281-8559</t>
+  </si>
+  <si>
+    <t>314-281-8684</t>
+  </si>
+  <si>
+    <t>314-281-8715</t>
+  </si>
+  <si>
+    <t>314-281-9082</t>
+  </si>
+  <si>
+    <t>314-304-1441</t>
+  </si>
+  <si>
+    <t>314-330-2096</t>
+  </si>
+  <si>
+    <t>314-365-7430</t>
+  </si>
+  <si>
+    <t>314-410-0743</t>
+  </si>
+  <si>
+    <t>314-410-0840</t>
+  </si>
+  <si>
+    <t>314-502-5963</t>
+  </si>
+  <si>
+    <t>314-610-0072</t>
+  </si>
+  <si>
+    <t>314-708-0613</t>
+  </si>
+  <si>
+    <t>314-708-1270</t>
+  </si>
+  <si>
+    <t>314-708-1558</t>
+  </si>
+  <si>
+    <t>314-708-3776</t>
+  </si>
+  <si>
+    <t>314-708-3799</t>
+  </si>
+  <si>
+    <t>314-708-5100</t>
+  </si>
+  <si>
+    <t>314-708-6260</t>
+  </si>
+  <si>
+    <t>314-740-0470</t>
+  </si>
+  <si>
+    <t>314-740-0614</t>
+  </si>
+  <si>
+    <t>314-740-1574</t>
+  </si>
+  <si>
+    <t>314-740-2247</t>
+  </si>
+  <si>
+    <t>314-740-2446</t>
+  </si>
+  <si>
+    <t>314-740-2532</t>
+  </si>
+  <si>
+    <t>314-740-2997</t>
+  </si>
+  <si>
+    <t>314-740-3077</t>
+  </si>
+  <si>
+    <t>314-740-3277</t>
+  </si>
+  <si>
+    <t>314-740-3540</t>
+  </si>
+  <si>
+    <t>314-740-6186</t>
+  </si>
+  <si>
+    <t>314-740-6272</t>
+  </si>
+  <si>
+    <t>314-740-6575</t>
+  </si>
+  <si>
+    <t>314-740-6842</t>
+  </si>
+  <si>
+    <t>314-740-6861</t>
+  </si>
+  <si>
+    <t>314-740-7031</t>
+  </si>
+  <si>
+    <t>314-740-7254</t>
+  </si>
+  <si>
+    <t>314-740-7932</t>
+  </si>
+  <si>
+    <t>314-740-8021</t>
+  </si>
+  <si>
+    <t>314-740-8028</t>
+  </si>
+  <si>
+    <t>314-740-8106</t>
+  </si>
+  <si>
+    <t>314-740-8713</t>
+  </si>
+  <si>
+    <t>314-780-4994</t>
+  </si>
+  <si>
+    <t>314-797-9222</t>
+  </si>
+  <si>
+    <t>314-797-9294</t>
+  </si>
+  <si>
+    <t>314-818-9094</t>
+  </si>
+  <si>
+    <t>314-818-9110</t>
+  </si>
+  <si>
+    <t>314-882-0146</t>
+  </si>
+  <si>
+    <t>314-913-0604</t>
+  </si>
+  <si>
+    <t>314-924-0218</t>
+  </si>
+  <si>
+    <t>314-943-6558</t>
+  </si>
+  <si>
+    <t>360-509-2851</t>
+  </si>
+  <si>
+    <t>513-503-2752</t>
+  </si>
+  <si>
+    <t>513-503-2925</t>
+  </si>
+  <si>
+    <t>513-503-3190</t>
+  </si>
+  <si>
+    <t>513-503-3270</t>
+  </si>
+  <si>
+    <t>513-503-3280</t>
+  </si>
+  <si>
+    <t>513-503-3507</t>
+  </si>
+  <si>
+    <t>513-503-3564</t>
+  </si>
+  <si>
+    <t>513-503-3683</t>
+  </si>
+  <si>
+    <t>513-503-3745</t>
+  </si>
+  <si>
+    <t>513-503-3759</t>
+  </si>
+  <si>
+    <t>513-503-4235</t>
+  </si>
+  <si>
+    <t>513-503-4279</t>
+  </si>
+  <si>
+    <t>513-503-4474</t>
+  </si>
+  <si>
+    <t>513-503-4991</t>
+  </si>
+  <si>
+    <t>513-503-7207</t>
+  </si>
+  <si>
+    <t>513-503-7212</t>
+  </si>
+  <si>
+    <t>513-503-7344</t>
+  </si>
+  <si>
+    <t>513-503-7437</t>
+  </si>
+  <si>
+    <t>513-503-7448</t>
+  </si>
+  <si>
+    <t>513-503-8396</t>
+  </si>
+  <si>
+    <t>Store #0449</t>
+  </si>
+  <si>
+    <t>Jason Bryant</t>
+  </si>
+  <si>
+    <t>Store 1</t>
+  </si>
+  <si>
+    <t>Store 2</t>
+  </si>
+  <si>
+    <t>Store 3</t>
+  </si>
+  <si>
+    <t>Store 4</t>
+  </si>
+  <si>
+    <t>Store 5</t>
+  </si>
+  <si>
+    <t>Store 0248</t>
+  </si>
+  <si>
+    <t>Christopher Eime</t>
+  </si>
+  <si>
+    <t>Store 388</t>
+  </si>
+  <si>
+    <t>Store 430</t>
+  </si>
+  <si>
+    <t>Device 1</t>
+  </si>
+  <si>
+    <t>Store 0128</t>
+  </si>
+  <si>
+    <t>Device 4</t>
+  </si>
+  <si>
+    <t>Device 5</t>
+  </si>
+  <si>
+    <t>Device 3</t>
+  </si>
+  <si>
+    <t>Device 2</t>
+  </si>
+  <si>
+    <t>Device 6</t>
+  </si>
+  <si>
+    <t>Device 7</t>
+  </si>
+  <si>
+    <t>Bab Store #0004</t>
+  </si>
+  <si>
+    <t>David Brawner</t>
+  </si>
+  <si>
+    <t>Daniel Elder</t>
+  </si>
+  <si>
+    <t>Vacant Vacant</t>
+  </si>
+  <si>
+    <t>Line 2</t>
+  </si>
+  <si>
+    <t>Store #354</t>
+  </si>
+  <si>
+    <t>Store #5354</t>
+  </si>
+  <si>
+    <t>Store #427</t>
+  </si>
+  <si>
+    <t>Store #439</t>
+  </si>
+  <si>
+    <t>Jason Faraone</t>
+  </si>
+  <si>
+    <t>Brandon Hickey</t>
+  </si>
+  <si>
+    <t>Jason Richter</t>
+  </si>
+  <si>
+    <t>Flex Business Data Device 2GB $35.00 monthlycharge $.25 per minute 2GB Acct Share $10/GB 2monthlygigabyte allowance $10.00per GBafter allowance Beginning on 09/26/19: 10% Access Discount</t>
+  </si>
+  <si>
+    <t>Flex Business Data Device 2GB $35.00 monthlycharge $.25 per minute 2GB Acct Share $10/GB 2monthlygigabyte allowance $10.00per GBafter allowance Beginning on 06/19/20: 10% Access Discount</t>
+  </si>
+  <si>
+    <t>Flex Business Data Device 2GB $35.00 monthlycharge $.25 per minute 2GB Acct Share $10/GB 2monthlygigabyte allowance $10.00per GBafter allowance Beginning on 12/12/18: 10% Access Discount</t>
+  </si>
+  <si>
+    <t>Flex Business Data Device 2GB $35.00 monthlycharge $.25 per minute 2GB Acct Share $10/GB 2monthlygigabyte allowance $10.00per GBafter allowance Beginning on 12/27/19: 10% Access Discount</t>
+  </si>
+  <si>
+    <t>Flex Business Data Device 2GB $35.00 monthlycharge $.25 per minute 2GB Acct Share $10/GB 2monthlygigabyte allowance $10.00per GBafter allowance Beginning on 07/09/20: 10% Access Discount</t>
+  </si>
+  <si>
+    <t>Business Unlimited Smartphone $45.00 monthlycharge Unlimitedmonthlyminutes UNL Text Messaging Unlimited M2M Text Unlimited Text Message Email &amp; Web Unlimited Unlimitedmonthlygigabyte UNL Picture/Video MSG UnlimitedmonthlyPicture &amp; Video</t>
+  </si>
+  <si>
+    <t>Flex Business Data Device 2GB $35.00 monthlycharge $.25 per minute 2GB Acct Share $10/GB 2monthlygigabyte allowance $10.00per GBafter allowance Beginning on 01/23/19: 10% Access Discount</t>
+  </si>
+  <si>
+    <t>Flex Business Data Device 2GB $35.00 monthlycharge $.25 per minute 2GB Acct Share $10/GB 2monthlygigabyte allowance $10.00per GBafter allowance Beginning on 06/28/19: 10% Access Discount</t>
+  </si>
+  <si>
+    <t>4G Mobile Broadband 5GB $50.00 monthlycharge $.25 per minute 5GB/ $10/GB 5monthlygigabyte allowance $10.00per GBafter allowance Beginning on 08/29/19: 10% Access Discount</t>
+  </si>
+  <si>
+    <t>Flexible Business Smartphn 2GB $65.00 monthlycharge Unlimitedmonthlyminutes UNL Text Messaging Unlimited M2M Text Unlimited Text Message Email &amp; Web 2GB SHR 2monthlygigabyte allowance $10.00per GBafter allowance Beginning on 12/12/18: 10% Access Discount UNL Picture/Video MSG UnlimitedmonthlyPicture &amp; Video</t>
+  </si>
+  <si>
+    <t>Flex Business Data Device 2GB $35.00 monthlycharge $.25 per minute 2GB Acct Share $10/GB 2monthlygigabyte allowance $10.00per GBafter allowance Beginning on 12/28/18: 10% Access Discount</t>
+  </si>
+  <si>
+    <t>Flex Business Data Device 2GB $35.00 monthlycharge $.25 per minute 2GB Acct Share $10/GB 2monthlygigabyte allowance $10.00per GBafter allowance Beginning on 01/14/19: 10% Access Discount</t>
+  </si>
+  <si>
+    <t>Flex Business Data Device 2GB $35.00 monthlycharge $.25 per minute 2GB Acct Share $10/GB 2monthlygigabyte allowance $10.00per GBafter allowance Beginning on 03/26/21: 10% Access Discount</t>
+  </si>
+  <si>
+    <t>Flex Business Data Device 2GB $35.00 monthlycharge $.25 per minute 2GB Acct Share $10/GB 2monthlygigabyte allowance $10.00per GBafter allowance Beginning on 03/12/19: 10% Access Discount</t>
+  </si>
+  <si>
+    <t>Flex Business Data Device 2GB $35.00 monthlycharge $.25 per minute 2GB Acct Share $10/GB 2monthlygigabyte allowance $10.00per GBafter allowance Beginning on 09/02/21: 10% Access Discount</t>
+  </si>
+  <si>
+    <t>April 15 2024</t>
+  </si>
+  <si>
+    <t>$31.50</t>
+  </si>
+  <si>
+    <t>$70.00</t>
+  </si>
+  <si>
+    <t>$45.00</t>
+  </si>
+  <si>
+    <t>$58.50</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>$4.05</t>
+  </si>
+  <si>
+    <t>$4.14</t>
+  </si>
+  <si>
+    <t>$6.56</t>
+  </si>
+  <si>
+    <t>$4.17</t>
+  </si>
+  <si>
+    <t>$7.06</t>
+  </si>
+  <si>
+    <t>$1.14</t>
+  </si>
+  <si>
+    <t>$.00</t>
+  </si>
+  <si>
+    <t>$.36</t>
+  </si>
+  <si>
+    <t>$.64</t>
+  </si>
+  <si>
+    <t>$1.88</t>
+  </si>
+  <si>
+    <t>$35.55</t>
+  </si>
+  <si>
+    <t>$35.64</t>
+  </si>
+  <si>
+    <t>$76.92</t>
+  </si>
+  <si>
+    <t>$49.17</t>
+  </si>
+  <si>
+    <t>$66.20</t>
+  </si>
+  <si>
+    <t>$78.44</t>
+  </si>
+  <si>
+    <t>$32.64</t>
+  </si>
+  <si>
+    <t>.001GB</t>
+  </si>
+  <si>
+    <t>.031GB</t>
+  </si>
+  <si>
+    <t>.002GB</t>
+  </si>
+  <si>
+    <t>3.316GB</t>
+  </si>
+  <si>
+    <t>.270GB</t>
+  </si>
+  <si>
+    <t>.003GB</t>
+  </si>
+  <si>
+    <t>.404GB</t>
+  </si>
+  <si>
+    <t>.036GB</t>
+  </si>
+  <si>
+    <t>.212GB</t>
+  </si>
+  <si>
+    <t>1.180GB</t>
+  </si>
+  <si>
+    <t>.602GB</t>
+  </si>
+  <si>
+    <t>.425GB</t>
+  </si>
+  <si>
+    <t>.057GB</t>
   </si>
   <si>
     <t>BABW</t>
@@ -253,10 +709,7 @@
     <t>Verizon</t>
   </si>
   <si>
-    <t>7894561230</t>
-  </si>
-  <si>
-    <t>000</t>
+    <t>Base Account</t>
   </si>
   <si>
     <t>Active</t>
@@ -271,19 +724,16 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>S24</t>
+    <t>i24</t>
+  </si>
+  <si>
+    <t>red</t>
   </si>
   <si>
     <t>64GB</t>
   </si>
   <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
-    <t>543</t>
+    <t>IOS</t>
   </si>
   <si>
     <t>10012 Darnell Street</t>
@@ -296,12 +746,6 @@
   </si>
   <si>
     <t>66215</t>
-  </si>
-  <si>
-    <t>2025-08-15</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -659,13 +1103,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS2"/>
+  <dimension ref="A1:BT74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:72">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,103 +1323,5662 @@
       <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:71">
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>197</v>
+      </c>
+      <c r="R2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S2" t="s">
+        <v>198</v>
+      </c>
+      <c r="T2" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" t="s">
+        <v>197</v>
+      </c>
+      <c r="V2" t="s">
+        <v>208</v>
+      </c>
+      <c r="W2" t="s">
+        <v>197</v>
+      </c>
+      <c r="X2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>197</v>
+      </c>
+      <c r="R3" t="s">
+        <v>197</v>
+      </c>
+      <c r="S3" t="s">
+        <v>198</v>
+      </c>
+      <c r="T3" t="s">
+        <v>204</v>
+      </c>
+      <c r="U3" t="s">
+        <v>197</v>
+      </c>
+      <c r="V3" t="s">
+        <v>208</v>
+      </c>
+      <c r="W3" t="s">
+        <v>197</v>
+      </c>
+      <c r="X3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>197</v>
+      </c>
+      <c r="R4" t="s">
+        <v>197</v>
+      </c>
+      <c r="S4" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U4" t="s">
+        <v>197</v>
+      </c>
+      <c r="V4" t="s">
+        <v>209</v>
+      </c>
+      <c r="W4" t="s">
+        <v>197</v>
+      </c>
+      <c r="X4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:72">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>197</v>
+      </c>
+      <c r="R5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S5" t="s">
+        <v>198</v>
+      </c>
+      <c r="T5" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" t="s">
+        <v>197</v>
+      </c>
+      <c r="V5" t="s">
+        <v>208</v>
+      </c>
+      <c r="W5" t="s">
+        <v>197</v>
+      </c>
+      <c r="X5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P6" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>197</v>
+      </c>
+      <c r="R6" t="s">
+        <v>197</v>
+      </c>
+      <c r="S6" t="s">
+        <v>198</v>
+      </c>
+      <c r="T6" t="s">
+        <v>204</v>
+      </c>
+      <c r="U6" t="s">
+        <v>197</v>
+      </c>
+      <c r="V6" t="s">
+        <v>208</v>
+      </c>
+      <c r="W6" t="s">
+        <v>197</v>
+      </c>
+      <c r="X6" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:72">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>197</v>
+      </c>
+      <c r="R7" t="s">
+        <v>197</v>
+      </c>
+      <c r="S7" t="s">
+        <v>198</v>
+      </c>
+      <c r="T7" t="s">
+        <v>204</v>
+      </c>
+      <c r="U7" t="s">
+        <v>197</v>
+      </c>
+      <c r="V7" t="s">
+        <v>208</v>
+      </c>
+      <c r="W7" t="s">
+        <v>197</v>
+      </c>
+      <c r="X7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:72">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
         <v>79</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P8" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>197</v>
+      </c>
+      <c r="R8" t="s">
+        <v>197</v>
+      </c>
+      <c r="S8" t="s">
+        <v>198</v>
+      </c>
+      <c r="T8" t="s">
+        <v>204</v>
+      </c>
+      <c r="U8" t="s">
+        <v>197</v>
+      </c>
+      <c r="V8" t="s">
+        <v>208</v>
+      </c>
+      <c r="W8" t="s">
+        <v>197</v>
+      </c>
+      <c r="X8" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:72">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
         <v>80</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>192</v>
+      </c>
+      <c r="P9" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>197</v>
+      </c>
+      <c r="R9" t="s">
+        <v>197</v>
+      </c>
+      <c r="S9" t="s">
+        <v>198</v>
+      </c>
+      <c r="T9" t="s">
+        <v>204</v>
+      </c>
+      <c r="U9" t="s">
+        <v>197</v>
+      </c>
+      <c r="V9" t="s">
+        <v>208</v>
+      </c>
+      <c r="W9" t="s">
+        <v>197</v>
+      </c>
+      <c r="X9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
         <v>81</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>197</v>
+      </c>
+      <c r="R10" t="s">
+        <v>197</v>
+      </c>
+      <c r="S10" t="s">
+        <v>199</v>
+      </c>
+      <c r="T10" t="s">
+        <v>204</v>
+      </c>
+      <c r="U10" t="s">
+        <v>197</v>
+      </c>
+      <c r="V10" t="s">
+        <v>209</v>
+      </c>
+      <c r="W10" t="s">
+        <v>197</v>
+      </c>
+      <c r="X10" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="D11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>192</v>
+      </c>
+      <c r="P11" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>197</v>
+      </c>
+      <c r="R11" t="s">
+        <v>197</v>
+      </c>
+      <c r="S11" t="s">
+        <v>200</v>
+      </c>
+      <c r="T11" t="s">
+        <v>205</v>
+      </c>
+      <c r="U11" t="s">
+        <v>197</v>
+      </c>
+      <c r="V11" t="s">
+        <v>210</v>
+      </c>
+      <c r="W11" t="s">
+        <v>197</v>
+      </c>
+      <c r="X11" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="D12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>192</v>
+      </c>
+      <c r="P12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>197</v>
+      </c>
+      <c r="R12" t="s">
+        <v>197</v>
+      </c>
+      <c r="S12" t="s">
+        <v>198</v>
+      </c>
+      <c r="T12" t="s">
+        <v>204</v>
+      </c>
+      <c r="U12" t="s">
+        <v>197</v>
+      </c>
+      <c r="V12" t="s">
+        <v>208</v>
+      </c>
+      <c r="W12" t="s">
+        <v>197</v>
+      </c>
+      <c r="X12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:72">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
         <v>84</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>197</v>
+      </c>
+      <c r="R13" t="s">
+        <v>197</v>
+      </c>
+      <c r="S13" t="s">
+        <v>198</v>
+      </c>
+      <c r="T13" t="s">
+        <v>204</v>
+      </c>
+      <c r="U13" t="s">
+        <v>197</v>
+      </c>
+      <c r="V13" t="s">
+        <v>208</v>
+      </c>
+      <c r="W13" t="s">
+        <v>197</v>
+      </c>
+      <c r="X13" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:72">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
         <v>85</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="D14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>197</v>
+      </c>
+      <c r="R14" t="s">
+        <v>197</v>
+      </c>
+      <c r="S14" t="s">
+        <v>198</v>
+      </c>
+      <c r="T14" t="s">
+        <v>204</v>
+      </c>
+      <c r="U14" t="s">
+        <v>197</v>
+      </c>
+      <c r="V14" t="s">
+        <v>208</v>
+      </c>
+      <c r="W14" t="s">
+        <v>197</v>
+      </c>
+      <c r="X14" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:72">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
         <v>86</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="D15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>192</v>
+      </c>
+      <c r="P15" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>197</v>
+      </c>
+      <c r="R15" t="s">
+        <v>197</v>
+      </c>
+      <c r="S15" t="s">
+        <v>198</v>
+      </c>
+      <c r="T15" t="s">
+        <v>204</v>
+      </c>
+      <c r="U15" t="s">
+        <v>197</v>
+      </c>
+      <c r="V15" t="s">
+        <v>208</v>
+      </c>
+      <c r="W15" t="s">
+        <v>197</v>
+      </c>
+      <c r="X15" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:72">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
         <v>87</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>197</v>
+      </c>
+      <c r="R16" t="s">
+        <v>197</v>
+      </c>
+      <c r="S16" t="s">
+        <v>198</v>
+      </c>
+      <c r="T16" t="s">
+        <v>204</v>
+      </c>
+      <c r="U16" t="s">
+        <v>197</v>
+      </c>
+      <c r="V16" t="s">
+        <v>208</v>
+      </c>
+      <c r="W16" t="s">
+        <v>197</v>
+      </c>
+      <c r="X16" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
         <v>88</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>197</v>
+      </c>
+      <c r="R17" t="s">
+        <v>197</v>
+      </c>
+      <c r="S17" t="s">
+        <v>198</v>
+      </c>
+      <c r="T17" t="s">
+        <v>204</v>
+      </c>
+      <c r="U17" t="s">
+        <v>197</v>
+      </c>
+      <c r="V17" t="s">
+        <v>208</v>
+      </c>
+      <c r="W17" t="s">
+        <v>197</v>
+      </c>
+      <c r="X17" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>192</v>
+      </c>
+      <c r="P18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>197</v>
+      </c>
+      <c r="R18" t="s">
+        <v>197</v>
+      </c>
+      <c r="S18" t="s">
+        <v>198</v>
+      </c>
+      <c r="T18" t="s">
+        <v>204</v>
+      </c>
+      <c r="U18" t="s">
+        <v>197</v>
+      </c>
+      <c r="V18" t="s">
+        <v>208</v>
+      </c>
+      <c r="W18" t="s">
+        <v>197</v>
+      </c>
+      <c r="X18" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>192</v>
+      </c>
+      <c r="P19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>197</v>
+      </c>
+      <c r="R19" t="s">
+        <v>197</v>
+      </c>
+      <c r="S19" t="s">
+        <v>198</v>
+      </c>
+      <c r="T19" t="s">
+        <v>204</v>
+      </c>
+      <c r="U19" t="s">
+        <v>197</v>
+      </c>
+      <c r="V19" t="s">
+        <v>208</v>
+      </c>
+      <c r="W19" t="s">
+        <v>197</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
         <v>91</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="P20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>197</v>
+      </c>
+      <c r="R20" t="s">
+        <v>197</v>
+      </c>
+      <c r="S20" t="s">
+        <v>198</v>
+      </c>
+      <c r="T20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U20" t="s">
+        <v>197</v>
+      </c>
+      <c r="V20" t="s">
+        <v>208</v>
+      </c>
+      <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
         <v>92</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>192</v>
+      </c>
+      <c r="P21" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>197</v>
+      </c>
+      <c r="R21" t="s">
+        <v>197</v>
+      </c>
+      <c r="S21" t="s">
+        <v>198</v>
+      </c>
+      <c r="T21" t="s">
+        <v>204</v>
+      </c>
+      <c r="U21" t="s">
+        <v>197</v>
+      </c>
+      <c r="V21" t="s">
+        <v>208</v>
+      </c>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
         <v>93</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>192</v>
+      </c>
+      <c r="P22" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>197</v>
+      </c>
+      <c r="R22" t="s">
+        <v>197</v>
+      </c>
+      <c r="S22" t="s">
+        <v>199</v>
+      </c>
+      <c r="T22" t="s">
+        <v>204</v>
+      </c>
+      <c r="U22" t="s">
+        <v>197</v>
+      </c>
+      <c r="V22" t="s">
+        <v>209</v>
+      </c>
+      <c r="W22" t="s">
+        <v>197</v>
+      </c>
+      <c r="X22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
         <v>94</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>192</v>
+      </c>
+      <c r="P23" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>197</v>
+      </c>
+      <c r="R23" t="s">
+        <v>197</v>
+      </c>
+      <c r="S23" t="s">
+        <v>198</v>
+      </c>
+      <c r="T23" t="s">
+        <v>204</v>
+      </c>
+      <c r="U23" t="s">
+        <v>197</v>
+      </c>
+      <c r="V23" t="s">
+        <v>208</v>
+      </c>
+      <c r="W23" t="s">
+        <v>197</v>
+      </c>
+      <c r="X23" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
         <v>95</v>
       </c>
-      <c r="BN2" t="s">
-        <v>95</v>
+      <c r="D24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>192</v>
+      </c>
+      <c r="P24" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>197</v>
+      </c>
+      <c r="R24" t="s">
+        <v>197</v>
+      </c>
+      <c r="S24" t="s">
+        <v>198</v>
+      </c>
+      <c r="T24" t="s">
+        <v>204</v>
+      </c>
+      <c r="U24" t="s">
+        <v>197</v>
+      </c>
+      <c r="V24" t="s">
+        <v>208</v>
+      </c>
+      <c r="W24" t="s">
+        <v>197</v>
+      </c>
+      <c r="X24" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>192</v>
+      </c>
+      <c r="P25" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>197</v>
+      </c>
+      <c r="R25" t="s">
+        <v>197</v>
+      </c>
+      <c r="S25" t="s">
+        <v>198</v>
+      </c>
+      <c r="T25" t="s">
+        <v>204</v>
+      </c>
+      <c r="U25" t="s">
+        <v>197</v>
+      </c>
+      <c r="V25" t="s">
+        <v>208</v>
+      </c>
+      <c r="W25" t="s">
+        <v>197</v>
+      </c>
+      <c r="X25" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>197</v>
+      </c>
+      <c r="R26" t="s">
+        <v>197</v>
+      </c>
+      <c r="S26" t="s">
+        <v>198</v>
+      </c>
+      <c r="T26" t="s">
+        <v>204</v>
+      </c>
+      <c r="U26" t="s">
+        <v>197</v>
+      </c>
+      <c r="V26" t="s">
+        <v>208</v>
+      </c>
+      <c r="W26" t="s">
+        <v>197</v>
+      </c>
+      <c r="X26" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>197</v>
+      </c>
+      <c r="R27" t="s">
+        <v>197</v>
+      </c>
+      <c r="S27" t="s">
+        <v>198</v>
+      </c>
+      <c r="T27" t="s">
+        <v>204</v>
+      </c>
+      <c r="U27" t="s">
+        <v>197</v>
+      </c>
+      <c r="V27" t="s">
+        <v>208</v>
+      </c>
+      <c r="W27" t="s">
+        <v>197</v>
+      </c>
+      <c r="X27" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>192</v>
+      </c>
+      <c r="P28" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>197</v>
+      </c>
+      <c r="R28" t="s">
+        <v>197</v>
+      </c>
+      <c r="S28" t="s">
+        <v>198</v>
+      </c>
+      <c r="T28" t="s">
+        <v>204</v>
+      </c>
+      <c r="U28" t="s">
+        <v>197</v>
+      </c>
+      <c r="V28" t="s">
+        <v>208</v>
+      </c>
+      <c r="W28" t="s">
+        <v>197</v>
+      </c>
+      <c r="X28" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>192</v>
+      </c>
+      <c r="P29" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>197</v>
+      </c>
+      <c r="R29" t="s">
+        <v>197</v>
+      </c>
+      <c r="S29" t="s">
+        <v>198</v>
+      </c>
+      <c r="T29" t="s">
+        <v>204</v>
+      </c>
+      <c r="U29" t="s">
+        <v>197</v>
+      </c>
+      <c r="V29" t="s">
+        <v>208</v>
+      </c>
+      <c r="W29" t="s">
+        <v>197</v>
+      </c>
+      <c r="X29" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>192</v>
+      </c>
+      <c r="P30" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>197</v>
+      </c>
+      <c r="R30" t="s">
+        <v>197</v>
+      </c>
+      <c r="S30" t="s">
+        <v>198</v>
+      </c>
+      <c r="T30" t="s">
+        <v>204</v>
+      </c>
+      <c r="U30" t="s">
+        <v>197</v>
+      </c>
+      <c r="V30" t="s">
+        <v>208</v>
+      </c>
+      <c r="W30" t="s">
+        <v>197</v>
+      </c>
+      <c r="X30" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>192</v>
+      </c>
+      <c r="P31" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>197</v>
+      </c>
+      <c r="R31" t="s">
+        <v>197</v>
+      </c>
+      <c r="S31" t="s">
+        <v>198</v>
+      </c>
+      <c r="T31" t="s">
+        <v>204</v>
+      </c>
+      <c r="U31" t="s">
+        <v>197</v>
+      </c>
+      <c r="V31" t="s">
+        <v>208</v>
+      </c>
+      <c r="W31" t="s">
+        <v>197</v>
+      </c>
+      <c r="X31" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>192</v>
+      </c>
+      <c r="P32" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>197</v>
+      </c>
+      <c r="R32" t="s">
+        <v>197</v>
+      </c>
+      <c r="S32" t="s">
+        <v>198</v>
+      </c>
+      <c r="T32" t="s">
+        <v>204</v>
+      </c>
+      <c r="U32" t="s">
+        <v>197</v>
+      </c>
+      <c r="V32" t="s">
+        <v>208</v>
+      </c>
+      <c r="W32" t="s">
+        <v>197</v>
+      </c>
+      <c r="X32" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>192</v>
+      </c>
+      <c r="P33" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>197</v>
+      </c>
+      <c r="R33" t="s">
+        <v>197</v>
+      </c>
+      <c r="S33" t="s">
+        <v>198</v>
+      </c>
+      <c r="T33" t="s">
+        <v>204</v>
+      </c>
+      <c r="U33" t="s">
+        <v>197</v>
+      </c>
+      <c r="V33" t="s">
+        <v>208</v>
+      </c>
+      <c r="W33" t="s">
+        <v>197</v>
+      </c>
+      <c r="X33" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>192</v>
+      </c>
+      <c r="P34" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>197</v>
+      </c>
+      <c r="R34" t="s">
+        <v>197</v>
+      </c>
+      <c r="S34" t="s">
+        <v>198</v>
+      </c>
+      <c r="T34" t="s">
+        <v>204</v>
+      </c>
+      <c r="U34" t="s">
+        <v>197</v>
+      </c>
+      <c r="V34" t="s">
+        <v>208</v>
+      </c>
+      <c r="W34" t="s">
+        <v>197</v>
+      </c>
+      <c r="X34" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>192</v>
+      </c>
+      <c r="P35" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>197</v>
+      </c>
+      <c r="R35" t="s">
+        <v>197</v>
+      </c>
+      <c r="S35" t="s">
+        <v>198</v>
+      </c>
+      <c r="T35" t="s">
+        <v>204</v>
+      </c>
+      <c r="U35" t="s">
+        <v>197</v>
+      </c>
+      <c r="V35" t="s">
+        <v>208</v>
+      </c>
+      <c r="W35" t="s">
+        <v>197</v>
+      </c>
+      <c r="X35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" t="s">
+        <v>179</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>192</v>
+      </c>
+      <c r="P36" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>197</v>
+      </c>
+      <c r="R36" t="s">
+        <v>197</v>
+      </c>
+      <c r="S36" t="s">
+        <v>198</v>
+      </c>
+      <c r="T36" t="s">
+        <v>204</v>
+      </c>
+      <c r="U36" t="s">
+        <v>197</v>
+      </c>
+      <c r="V36" t="s">
+        <v>208</v>
+      </c>
+      <c r="W36" t="s">
+        <v>197</v>
+      </c>
+      <c r="X36" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" t="s">
+        <v>179</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>192</v>
+      </c>
+      <c r="P37" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>197</v>
+      </c>
+      <c r="R37" t="s">
+        <v>197</v>
+      </c>
+      <c r="S37" t="s">
+        <v>198</v>
+      </c>
+      <c r="T37" t="s">
+        <v>204</v>
+      </c>
+      <c r="U37" t="s">
+        <v>197</v>
+      </c>
+      <c r="V37" t="s">
+        <v>208</v>
+      </c>
+      <c r="W37" t="s">
+        <v>197</v>
+      </c>
+      <c r="X37" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>192</v>
+      </c>
+      <c r="P38" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>197</v>
+      </c>
+      <c r="R38" t="s">
+        <v>197</v>
+      </c>
+      <c r="S38" t="s">
+        <v>198</v>
+      </c>
+      <c r="T38" t="s">
+        <v>204</v>
+      </c>
+      <c r="U38" t="s">
+        <v>197</v>
+      </c>
+      <c r="V38" t="s">
+        <v>208</v>
+      </c>
+      <c r="W38" t="s">
+        <v>197</v>
+      </c>
+      <c r="X38" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>192</v>
+      </c>
+      <c r="P39" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>197</v>
+      </c>
+      <c r="R39" t="s">
+        <v>197</v>
+      </c>
+      <c r="S39" t="s">
+        <v>198</v>
+      </c>
+      <c r="T39" t="s">
+        <v>204</v>
+      </c>
+      <c r="U39" t="s">
+        <v>197</v>
+      </c>
+      <c r="V39" t="s">
+        <v>208</v>
+      </c>
+      <c r="W39" t="s">
+        <v>197</v>
+      </c>
+      <c r="X39" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" t="s">
+        <v>179</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>192</v>
+      </c>
+      <c r="P40" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>197</v>
+      </c>
+      <c r="R40" t="s">
+        <v>197</v>
+      </c>
+      <c r="S40" t="s">
+        <v>198</v>
+      </c>
+      <c r="T40" t="s">
+        <v>204</v>
+      </c>
+      <c r="U40" t="s">
+        <v>197</v>
+      </c>
+      <c r="V40" t="s">
+        <v>208</v>
+      </c>
+      <c r="W40" t="s">
+        <v>197</v>
+      </c>
+      <c r="X40" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" t="s">
+        <v>179</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>192</v>
+      </c>
+      <c r="P41" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>197</v>
+      </c>
+      <c r="R41" t="s">
+        <v>197</v>
+      </c>
+      <c r="S41" t="s">
+        <v>198</v>
+      </c>
+      <c r="T41" t="s">
+        <v>204</v>
+      </c>
+      <c r="U41" t="s">
+        <v>197</v>
+      </c>
+      <c r="V41" t="s">
+        <v>208</v>
+      </c>
+      <c r="W41" t="s">
+        <v>197</v>
+      </c>
+      <c r="X41" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>179</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>192</v>
+      </c>
+      <c r="P42" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>197</v>
+      </c>
+      <c r="R42" t="s">
+        <v>197</v>
+      </c>
+      <c r="S42" t="s">
+        <v>198</v>
+      </c>
+      <c r="T42" t="s">
+        <v>204</v>
+      </c>
+      <c r="U42" t="s">
+        <v>197</v>
+      </c>
+      <c r="V42" t="s">
+        <v>208</v>
+      </c>
+      <c r="W42" t="s">
+        <v>197</v>
+      </c>
+      <c r="X42" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" t="s">
+        <v>179</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>192</v>
+      </c>
+      <c r="P43" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>197</v>
+      </c>
+      <c r="R43" t="s">
+        <v>197</v>
+      </c>
+      <c r="S43" t="s">
+        <v>198</v>
+      </c>
+      <c r="T43" t="s">
+        <v>204</v>
+      </c>
+      <c r="U43" t="s">
+        <v>197</v>
+      </c>
+      <c r="V43" t="s">
+        <v>208</v>
+      </c>
+      <c r="W43" t="s">
+        <v>197</v>
+      </c>
+      <c r="X43" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>192</v>
+      </c>
+      <c r="P44" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>197</v>
+      </c>
+      <c r="R44" t="s">
+        <v>197</v>
+      </c>
+      <c r="S44" t="s">
+        <v>198</v>
+      </c>
+      <c r="T44" t="s">
+        <v>204</v>
+      </c>
+      <c r="U44" t="s">
+        <v>197</v>
+      </c>
+      <c r="V44" t="s">
+        <v>208</v>
+      </c>
+      <c r="W44" t="s">
+        <v>197</v>
+      </c>
+      <c r="X44" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" t="s">
+        <v>185</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>192</v>
+      </c>
+      <c r="P45" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>197</v>
+      </c>
+      <c r="R45" t="s">
+        <v>197</v>
+      </c>
+      <c r="S45" t="s">
+        <v>201</v>
+      </c>
+      <c r="T45" t="s">
+        <v>204</v>
+      </c>
+      <c r="U45" t="s">
+        <v>197</v>
+      </c>
+      <c r="V45" t="s">
+        <v>211</v>
+      </c>
+      <c r="W45" t="s">
+        <v>197</v>
+      </c>
+      <c r="X45" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>192</v>
+      </c>
+      <c r="P46" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>197</v>
+      </c>
+      <c r="R46" t="s">
+        <v>197</v>
+      </c>
+      <c r="S46" t="s">
+        <v>202</v>
+      </c>
+      <c r="T46" t="s">
+        <v>206</v>
+      </c>
+      <c r="U46" t="s">
+        <v>197</v>
+      </c>
+      <c r="V46" t="s">
+        <v>212</v>
+      </c>
+      <c r="W46" t="s">
+        <v>197</v>
+      </c>
+      <c r="X46" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>192</v>
+      </c>
+      <c r="P47" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>197</v>
+      </c>
+      <c r="R47" t="s">
+        <v>197</v>
+      </c>
+      <c r="S47" t="s">
+        <v>202</v>
+      </c>
+      <c r="T47" t="s">
+        <v>206</v>
+      </c>
+      <c r="U47" t="s">
+        <v>197</v>
+      </c>
+      <c r="V47" t="s">
+        <v>212</v>
+      </c>
+      <c r="W47" t="s">
+        <v>197</v>
+      </c>
+      <c r="X47" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>192</v>
+      </c>
+      <c r="P48" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>197</v>
+      </c>
+      <c r="R48" t="s">
+        <v>197</v>
+      </c>
+      <c r="S48" t="s">
+        <v>198</v>
+      </c>
+      <c r="T48" t="s">
+        <v>204</v>
+      </c>
+      <c r="U48" t="s">
+        <v>197</v>
+      </c>
+      <c r="V48" t="s">
+        <v>208</v>
+      </c>
+      <c r="W48" t="s">
+        <v>197</v>
+      </c>
+      <c r="X48" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" t="s">
+        <v>187</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>192</v>
+      </c>
+      <c r="P49" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>197</v>
+      </c>
+      <c r="R49" t="s">
+        <v>197</v>
+      </c>
+      <c r="S49" t="s">
+        <v>198</v>
+      </c>
+      <c r="T49" t="s">
+        <v>204</v>
+      </c>
+      <c r="U49" t="s">
+        <v>197</v>
+      </c>
+      <c r="V49" t="s">
+        <v>208</v>
+      </c>
+      <c r="W49" t="s">
+        <v>197</v>
+      </c>
+      <c r="X49" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>192</v>
+      </c>
+      <c r="P50" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>197</v>
+      </c>
+      <c r="R50" t="s">
+        <v>197</v>
+      </c>
+      <c r="S50" t="s">
+        <v>198</v>
+      </c>
+      <c r="T50" t="s">
+        <v>204</v>
+      </c>
+      <c r="U50" t="s">
+        <v>197</v>
+      </c>
+      <c r="V50" t="s">
+        <v>208</v>
+      </c>
+      <c r="W50" t="s">
+        <v>197</v>
+      </c>
+      <c r="X50" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>192</v>
+      </c>
+      <c r="P51" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>197</v>
+      </c>
+      <c r="R51" t="s">
+        <v>197</v>
+      </c>
+      <c r="S51" t="s">
+        <v>198</v>
+      </c>
+      <c r="T51" t="s">
+        <v>204</v>
+      </c>
+      <c r="U51" t="s">
+        <v>197</v>
+      </c>
+      <c r="V51" t="s">
+        <v>208</v>
+      </c>
+      <c r="W51" t="s">
+        <v>197</v>
+      </c>
+      <c r="X51" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" t="s">
+        <v>189</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>192</v>
+      </c>
+      <c r="P52" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>197</v>
+      </c>
+      <c r="R52" t="s">
+        <v>197</v>
+      </c>
+      <c r="S52" t="s">
+        <v>199</v>
+      </c>
+      <c r="T52" t="s">
+        <v>204</v>
+      </c>
+      <c r="U52" t="s">
+        <v>197</v>
+      </c>
+      <c r="V52" t="s">
+        <v>209</v>
+      </c>
+      <c r="W52" t="s">
+        <v>197</v>
+      </c>
+      <c r="X52" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" t="s">
+        <v>190</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>192</v>
+      </c>
+      <c r="P53" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>197</v>
+      </c>
+      <c r="R53" t="s">
+        <v>197</v>
+      </c>
+      <c r="S53" t="s">
+        <v>198</v>
+      </c>
+      <c r="T53" t="s">
+        <v>204</v>
+      </c>
+      <c r="U53" t="s">
+        <v>197</v>
+      </c>
+      <c r="V53" t="s">
+        <v>208</v>
+      </c>
+      <c r="W53" t="s">
+        <v>197</v>
+      </c>
+      <c r="X53" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" t="s">
+        <v>182</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>192</v>
+      </c>
+      <c r="P54" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>197</v>
+      </c>
+      <c r="R54" t="s">
+        <v>197</v>
+      </c>
+      <c r="S54" t="s">
+        <v>200</v>
+      </c>
+      <c r="T54" t="s">
+        <v>207</v>
+      </c>
+      <c r="U54" t="s">
+        <v>197</v>
+      </c>
+      <c r="V54" t="s">
+        <v>213</v>
+      </c>
+      <c r="W54" t="s">
+        <v>197</v>
+      </c>
+      <c r="X54" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" t="s">
+        <v>191</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>192</v>
+      </c>
+      <c r="P55" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>197</v>
+      </c>
+      <c r="R55" t="s">
+        <v>197</v>
+      </c>
+      <c r="S55" t="s">
+        <v>203</v>
+      </c>
+      <c r="T55" t="s">
+        <v>204</v>
+      </c>
+      <c r="U55" t="s">
+        <v>197</v>
+      </c>
+      <c r="V55" t="s">
+        <v>214</v>
+      </c>
+      <c r="W55" t="s">
+        <v>197</v>
+      </c>
+      <c r="X55" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" t="s">
+        <v>191</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>192</v>
+      </c>
+      <c r="P56" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>197</v>
+      </c>
+      <c r="R56" t="s">
+        <v>197</v>
+      </c>
+      <c r="S56" t="s">
+        <v>203</v>
+      </c>
+      <c r="T56" t="s">
+        <v>204</v>
+      </c>
+      <c r="U56" t="s">
+        <v>197</v>
+      </c>
+      <c r="V56" t="s">
+        <v>214</v>
+      </c>
+      <c r="W56" t="s">
+        <v>197</v>
+      </c>
+      <c r="X56" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" t="s">
+        <v>191</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>192</v>
+      </c>
+      <c r="P57" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>197</v>
+      </c>
+      <c r="R57" t="s">
+        <v>197</v>
+      </c>
+      <c r="S57" t="s">
+        <v>203</v>
+      </c>
+      <c r="T57" t="s">
+        <v>204</v>
+      </c>
+      <c r="U57" t="s">
+        <v>197</v>
+      </c>
+      <c r="V57" t="s">
+        <v>214</v>
+      </c>
+      <c r="W57" t="s">
+        <v>197</v>
+      </c>
+      <c r="X57" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" t="s">
+        <v>191</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>192</v>
+      </c>
+      <c r="P58" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>197</v>
+      </c>
+      <c r="R58" t="s">
+        <v>197</v>
+      </c>
+      <c r="S58" t="s">
+        <v>203</v>
+      </c>
+      <c r="T58" t="s">
+        <v>204</v>
+      </c>
+      <c r="U58" t="s">
+        <v>197</v>
+      </c>
+      <c r="V58" t="s">
+        <v>214</v>
+      </c>
+      <c r="W58" t="s">
+        <v>197</v>
+      </c>
+      <c r="X58" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" t="s">
+        <v>191</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>192</v>
+      </c>
+      <c r="P59" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>197</v>
+      </c>
+      <c r="R59" t="s">
+        <v>197</v>
+      </c>
+      <c r="S59" t="s">
+        <v>203</v>
+      </c>
+      <c r="T59" t="s">
+        <v>204</v>
+      </c>
+      <c r="U59" t="s">
+        <v>197</v>
+      </c>
+      <c r="V59" t="s">
+        <v>214</v>
+      </c>
+      <c r="W59" t="s">
+        <v>197</v>
+      </c>
+      <c r="X59" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" t="s">
+        <v>191</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>192</v>
+      </c>
+      <c r="P60" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>197</v>
+      </c>
+      <c r="R60" t="s">
+        <v>197</v>
+      </c>
+      <c r="S60" t="s">
+        <v>203</v>
+      </c>
+      <c r="T60" t="s">
+        <v>204</v>
+      </c>
+      <c r="U60" t="s">
+        <v>197</v>
+      </c>
+      <c r="V60" t="s">
+        <v>214</v>
+      </c>
+      <c r="W60" t="s">
+        <v>197</v>
+      </c>
+      <c r="X60" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" t="s">
+        <v>191</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>192</v>
+      </c>
+      <c r="P61" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>197</v>
+      </c>
+      <c r="R61" t="s">
+        <v>197</v>
+      </c>
+      <c r="S61" t="s">
+        <v>203</v>
+      </c>
+      <c r="T61" t="s">
+        <v>204</v>
+      </c>
+      <c r="U61" t="s">
+        <v>197</v>
+      </c>
+      <c r="V61" t="s">
+        <v>214</v>
+      </c>
+      <c r="W61" t="s">
+        <v>197</v>
+      </c>
+      <c r="X61" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" t="s">
+        <v>191</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>192</v>
+      </c>
+      <c r="P62" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>197</v>
+      </c>
+      <c r="R62" t="s">
+        <v>197</v>
+      </c>
+      <c r="S62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T62" t="s">
+        <v>204</v>
+      </c>
+      <c r="U62" t="s">
+        <v>197</v>
+      </c>
+      <c r="V62" t="s">
+        <v>214</v>
+      </c>
+      <c r="W62" t="s">
+        <v>197</v>
+      </c>
+      <c r="X62" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>192</v>
+      </c>
+      <c r="P63" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>197</v>
+      </c>
+      <c r="R63" t="s">
+        <v>197</v>
+      </c>
+      <c r="S63" t="s">
+        <v>203</v>
+      </c>
+      <c r="T63" t="s">
+        <v>204</v>
+      </c>
+      <c r="U63" t="s">
+        <v>197</v>
+      </c>
+      <c r="V63" t="s">
+        <v>214</v>
+      </c>
+      <c r="W63" t="s">
+        <v>197</v>
+      </c>
+      <c r="X63" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" t="s">
+        <v>191</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>192</v>
+      </c>
+      <c r="P64" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>197</v>
+      </c>
+      <c r="R64" t="s">
+        <v>197</v>
+      </c>
+      <c r="S64" t="s">
+        <v>203</v>
+      </c>
+      <c r="T64" t="s">
+        <v>204</v>
+      </c>
+      <c r="U64" t="s">
+        <v>197</v>
+      </c>
+      <c r="V64" t="s">
+        <v>214</v>
+      </c>
+      <c r="W64" t="s">
+        <v>197</v>
+      </c>
+      <c r="X64" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:50">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" t="s">
+        <v>191</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>192</v>
+      </c>
+      <c r="P65" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>197</v>
+      </c>
+      <c r="R65" t="s">
+        <v>197</v>
+      </c>
+      <c r="S65" t="s">
+        <v>203</v>
+      </c>
+      <c r="T65" t="s">
+        <v>204</v>
+      </c>
+      <c r="U65" t="s">
+        <v>197</v>
+      </c>
+      <c r="V65" t="s">
+        <v>214</v>
+      </c>
+      <c r="W65" t="s">
+        <v>197</v>
+      </c>
+      <c r="X65" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:50">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" t="s">
+        <v>191</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>192</v>
+      </c>
+      <c r="P66" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>197</v>
+      </c>
+      <c r="R66" t="s">
+        <v>197</v>
+      </c>
+      <c r="S66" t="s">
+        <v>203</v>
+      </c>
+      <c r="T66" t="s">
+        <v>204</v>
+      </c>
+      <c r="U66" t="s">
+        <v>197</v>
+      </c>
+      <c r="V66" t="s">
+        <v>214</v>
+      </c>
+      <c r="W66" t="s">
+        <v>197</v>
+      </c>
+      <c r="X66" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:50">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" t="s">
+        <v>191</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>192</v>
+      </c>
+      <c r="P67" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>197</v>
+      </c>
+      <c r="R67" t="s">
+        <v>197</v>
+      </c>
+      <c r="S67" t="s">
+        <v>203</v>
+      </c>
+      <c r="T67" t="s">
+        <v>204</v>
+      </c>
+      <c r="U67" t="s">
+        <v>197</v>
+      </c>
+      <c r="V67" t="s">
+        <v>214</v>
+      </c>
+      <c r="W67" t="s">
+        <v>197</v>
+      </c>
+      <c r="X67" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:50">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" t="s">
+        <v>191</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>192</v>
+      </c>
+      <c r="P68" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>197</v>
+      </c>
+      <c r="R68" t="s">
+        <v>197</v>
+      </c>
+      <c r="S68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T68" t="s">
+        <v>204</v>
+      </c>
+      <c r="U68" t="s">
+        <v>197</v>
+      </c>
+      <c r="V68" t="s">
+        <v>214</v>
+      </c>
+      <c r="W68" t="s">
+        <v>197</v>
+      </c>
+      <c r="X68" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:50">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" t="s">
+        <v>191</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>192</v>
+      </c>
+      <c r="P69" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>197</v>
+      </c>
+      <c r="R69" t="s">
+        <v>197</v>
+      </c>
+      <c r="S69" t="s">
+        <v>203</v>
+      </c>
+      <c r="T69" t="s">
+        <v>204</v>
+      </c>
+      <c r="U69" t="s">
+        <v>197</v>
+      </c>
+      <c r="V69" t="s">
+        <v>214</v>
+      </c>
+      <c r="W69" t="s">
+        <v>197</v>
+      </c>
+      <c r="X69" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:50">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" t="s">
+        <v>191</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>192</v>
+      </c>
+      <c r="P70" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>197</v>
+      </c>
+      <c r="R70" t="s">
+        <v>197</v>
+      </c>
+      <c r="S70" t="s">
+        <v>203</v>
+      </c>
+      <c r="T70" t="s">
+        <v>204</v>
+      </c>
+      <c r="U70" t="s">
+        <v>197</v>
+      </c>
+      <c r="V70" t="s">
+        <v>214</v>
+      </c>
+      <c r="W70" t="s">
+        <v>197</v>
+      </c>
+      <c r="X70" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:50">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" t="s">
+        <v>191</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>192</v>
+      </c>
+      <c r="P71" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>197</v>
+      </c>
+      <c r="R71" t="s">
+        <v>197</v>
+      </c>
+      <c r="S71" t="s">
+        <v>203</v>
+      </c>
+      <c r="T71" t="s">
+        <v>204</v>
+      </c>
+      <c r="U71" t="s">
+        <v>197</v>
+      </c>
+      <c r="V71" t="s">
+        <v>214</v>
+      </c>
+      <c r="W71" t="s">
+        <v>197</v>
+      </c>
+      <c r="X71" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:50">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" t="s">
+        <v>191</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>192</v>
+      </c>
+      <c r="P72" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>197</v>
+      </c>
+      <c r="R72" t="s">
+        <v>197</v>
+      </c>
+      <c r="S72" t="s">
+        <v>203</v>
+      </c>
+      <c r="T72" t="s">
+        <v>204</v>
+      </c>
+      <c r="U72" t="s">
+        <v>197</v>
+      </c>
+      <c r="V72" t="s">
+        <v>214</v>
+      </c>
+      <c r="W72" t="s">
+        <v>197</v>
+      </c>
+      <c r="X72" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:50">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" t="s">
+        <v>191</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>192</v>
+      </c>
+      <c r="P73" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>197</v>
+      </c>
+      <c r="R73" t="s">
+        <v>197</v>
+      </c>
+      <c r="S73" t="s">
+        <v>203</v>
+      </c>
+      <c r="T73" t="s">
+        <v>204</v>
+      </c>
+      <c r="U73" t="s">
+        <v>197</v>
+      </c>
+      <c r="V73" t="s">
+        <v>214</v>
+      </c>
+      <c r="W73" t="s">
+        <v>197</v>
+      </c>
+      <c r="X73" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:50">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" t="s">
+        <v>191</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>192</v>
+      </c>
+      <c r="P74" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>197</v>
+      </c>
+      <c r="R74" t="s">
+        <v>197</v>
+      </c>
+      <c r="S74" t="s">
+        <v>203</v>
+      </c>
+      <c r="T74" t="s">
+        <v>204</v>
+      </c>
+      <c r="U74" t="s">
+        <v>197</v>
+      </c>
+      <c r="V74" t="s">
+        <v>214</v>
+      </c>
+      <c r="W74" t="s">
+        <v>197</v>
+      </c>
+      <c r="X74" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>241</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
